--- a/ConfigData/Xlsx/HeroSkillAttr.xlsx
+++ b/ConfigData/Xlsx/HeroSkillAttr.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
@@ -174,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +546,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -657,6 +668,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,36 +828,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -830,38 +890,495 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L10" totalsRowShown="0">
-  <autoFilter ref="A1:L10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:L10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="14">
+  <autoFilter ref="A3:L10"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Des"/>
-    <tableColumn id="4" name="HeroLevel"/>
-    <tableColumn id="5" name="Atk"/>
-    <tableColumn id="6" name="Def"/>
-    <tableColumn id="7" name="Magic"/>
-    <tableColumn id="8" name="Hit"/>
-    <tableColumn id="9" name="Dhit"/>
-    <tableColumn id="10" name="Spd"/>
-    <tableColumn id="11" name="Hp"/>
-    <tableColumn id="12" name="Icon"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Des" dataDxfId="11"/>
+    <tableColumn id="4" name="HeroLevel" dataDxfId="10"/>
+    <tableColumn id="5" name="Atk" dataDxfId="9"/>
+    <tableColumn id="6" name="Def" dataDxfId="8"/>
+    <tableColumn id="7" name="Magic" dataDxfId="7"/>
+    <tableColumn id="8" name="Hit" dataDxfId="6"/>
+    <tableColumn id="9" name="Dhit" dataDxfId="5"/>
+    <tableColumn id="10" name="Spd" dataDxfId="4"/>
+    <tableColumn id="11" name="Hp" dataDxfId="3"/>
+    <tableColumn id="12" name="Icon" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,7 +1392,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -910,7 +1427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,9 +1459,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,6 +1494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,396 +1670,396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
